--- a/biology/Histoire de la zoologie et de la botanique/Xylothèque/Xylothèque.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Xylothèque/Xylothèque.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Xyloth%C3%A8que</t>
+          <t>Xylothèque</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une xylothèque  (du grec ancien ξύλον / xúlon, « bois », et θήκη / thḗkē, « armoire, caisse ») est le lieu où est conservée et consultée une collection organisée d'échantillons de bois. Par métonymie, la xylothèque désigne aussi la collection elle-même. Le bois, qui reste un matériau omniprésent même dans des sociétés fortement industrialisées, peut être étudié sous divers aspects : la xylothèque est ainsi utile non seulement comme référence pour identifier les espèces dans des études de systématique ou d'anatomie, mais aussi en ethnographie, en archéologie, en criminalistique, pour la restauration d'œuvres d'art, pour déterminer la valeur économique des essences ou pour retracer les variations du climat.
 Les plus anciennes collections de bois connues sont rassemblées dans des cabinets de curiosités à la fin du XVIIe siècle. De véritables bibliothèques de bois apparaissent au siècle suivant en Prusse et présentent les échantillons comme des livres ou des petits coffrets en bois de cœur et d'aubier, contenant rameaux, feuilles, fleurs et fruits. Les échantillons peuvent prendre des formes très variées. Ainsi, dans le Japon du XIXe siècle, des collections montrent plutôt une représentation de l'arbre peinte sur une planchette de son bois. Des sculptures en bas-relief et en haut-relief illustrent les essences de panneaux de bois provenant de l'ancien musée colonial de Haarlem. Aux jardins botaniques royaux de Kew, les échantillons de bois récoltés par l'artiste anglaise Marianne North sur tous les continents entre 1871 et 1885 constituent le lambris de la galerie où sont exposées ses peintures. Dans les années 1920, le journaliste américain Rudolph Edgar Block constitue une collection de 1 400 cannes de bois appartenant à 950 essences différentes.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Xyloth%C3%A8que</t>
+          <t>Xylothèque</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,12 +526,14 @@
           <t>Rôle et fonctions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Matière première d'origine végétale, le bois est l'objet d'étude de plusieurs disciplines, parmi lesquelles la systématique, l'anatomie ou l'écologie, mais aussi la paléoécologie, la paléobotanique, l'archéobotanique, l'ethnobotanique, la botanique économique ou la science des matériaux[1]. Les collections de bois sont complémentaires des herbiers pour l'étude des espèces végétales et servent comme eux de bases à l'enseignement[2]. Elles sont encore employées pour étudier les propriétés physiques et mécaniques du bois, comme sa dureté et sa résistance[3].
-Les institutions détentrices d'une xylothèque l'utilisent tant pour leur mission propre qu'au profit d'une large communauté externe[1]. Les collections servent de référence pour identifier des échantillons de bois inconnus lors de fouilles archéologiques ou paléontologiques, d'analyse, de restauration ou d'estimation de la valeur d'œuvres d'art, ou pour le commerce du bois, notamment dans le cadre de la lutte contre le trafic d'espèces protégées[4],[5]. Des échantillons de la xylothèque de l'université de Kyoto ont été utilisés pour confirmer l'identification des essences des planchettes du Tripitaka Koreana[6]. Les collections de bois sont aussi employées pour des expertises médico-légales[7] ou criminalistiques, comme dans l'affaire du bébé Lindbergh, ou lors de conflits de voisinage[1].
-Certaines collections sont hautement spécialisées : le Laboratory of Tree-Ring Research de l'université de l'Arizona à Tucson s'intéresse ainsi spécifiquement à la dendrochronologie et à la dendroclimatologie, ainsi qu'à l'étude de l'impact du changement climatique sur les arbres. D'autres laboratoires de recherche associés à une xylothèque mènent des travaux multiples couvrant plusieurs disciplines distinctes[1] : par exemple, les chercheurs du musée royal de l'Afrique centrale à Tervuren, dont les travaux sont surtout axés sur l'étude écologique et l'anatomie des bois de l'Afrique au sud du Sahara, étudient également la dendrochronologie et sont fréquemment appelés à identifier l'essence d'objets en bois[8],[9], à évaluer les possibilités d'espèces présentes sur le marché ou de nouvelles espèces ou encore à identifier des charbons de bois ou des bois fossiles pétrifiés dans le cadre d'études préhistoriques ou anthropologiques[10].
-Avec la déforestation croissante, le rôle des xylothèques est devenu crucial car de nombreuses espèces ligneuses pourraient disparaître avant même que des échantillons n'aient pu en être prélevés et qu'elles n'aient été décrites[11]. De plus, la surexploitation et le déboisement des forêts tropicales compromet leur régénération et la valorisation d'un plus grand nombre d'espèces est susceptible de contibuer à leur gestion durable[10]. En parallèle, le bois connaît au début du XXIe siècle un regain d'intérêt important comme matériau de construction. Cette perspective amène les chercheurs  de l'INRA, en France, à mettre en place une xylothèque comprenant des échantillons de bois « idéaux » : présentant trois plans de coupe (transversal, tangentiel et longitudinal), ils permettront d'évaluer le potentiel des différentes essences et de mieux prédire leurs propriétés mécaniques[12].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Matière première d'origine végétale, le bois est l'objet d'étude de plusieurs disciplines, parmi lesquelles la systématique, l'anatomie ou l'écologie, mais aussi la paléoécologie, la paléobotanique, l'archéobotanique, l'ethnobotanique, la botanique économique ou la science des matériaux. Les collections de bois sont complémentaires des herbiers pour l'étude des espèces végétales et servent comme eux de bases à l'enseignement. Elles sont encore employées pour étudier les propriétés physiques et mécaniques du bois, comme sa dureté et sa résistance.
+Les institutions détentrices d'une xylothèque l'utilisent tant pour leur mission propre qu'au profit d'une large communauté externe. Les collections servent de référence pour identifier des échantillons de bois inconnus lors de fouilles archéologiques ou paléontologiques, d'analyse, de restauration ou d'estimation de la valeur d'œuvres d'art, ou pour le commerce du bois, notamment dans le cadre de la lutte contre le trafic d'espèces protégées,. Des échantillons de la xylothèque de l'université de Kyoto ont été utilisés pour confirmer l'identification des essences des planchettes du Tripitaka Koreana. Les collections de bois sont aussi employées pour des expertises médico-légales ou criminalistiques, comme dans l'affaire du bébé Lindbergh, ou lors de conflits de voisinage.
+Certaines collections sont hautement spécialisées : le Laboratory of Tree-Ring Research de l'université de l'Arizona à Tucson s'intéresse ainsi spécifiquement à la dendrochronologie et à la dendroclimatologie, ainsi qu'à l'étude de l'impact du changement climatique sur les arbres. D'autres laboratoires de recherche associés à une xylothèque mènent des travaux multiples couvrant plusieurs disciplines distinctes : par exemple, les chercheurs du musée royal de l'Afrique centrale à Tervuren, dont les travaux sont surtout axés sur l'étude écologique et l'anatomie des bois de l'Afrique au sud du Sahara, étudient également la dendrochronologie et sont fréquemment appelés à identifier l'essence d'objets en bois à évaluer les possibilités d'espèces présentes sur le marché ou de nouvelles espèces ou encore à identifier des charbons de bois ou des bois fossiles pétrifiés dans le cadre d'études préhistoriques ou anthropologiques.
+Avec la déforestation croissante, le rôle des xylothèques est devenu crucial car de nombreuses espèces ligneuses pourraient disparaître avant même que des échantillons n'aient pu en être prélevés et qu'elles n'aient été décrites. De plus, la surexploitation et le déboisement des forêts tropicales compromet leur régénération et la valorisation d'un plus grand nombre d'espèces est susceptible de contibuer à leur gestion durable. En parallèle, le bois connaît au début du XXIe siècle un regain d'intérêt important comme matériau de construction. Cette perspective amène les chercheurs  de l'INRA, en France, à mettre en place une xylothèque comprenant des échantillons de bois « idéaux » : présentant trois plans de coupe (transversal, tangentiel et longitudinal), ils permettront d'évaluer le potentiel des différentes essences et de mieux prédire leurs propriétés mécaniques.
 </t>
         </is>
       </c>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Xyloth%C3%A8que</t>
+          <t>Xylothèque</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,61 +562,720 @@
           <t>Collections historiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alors que la confection d'herbiers semble remonter au début de la Renaissance[13], les premières mentions de collections de bois n'apparaissent qu'à la fin du XVIIe siècle dans les cabinets de curiosités. À l'origine simple collection d'objets, la xylothèque devient, sous l'influence des Lumières et de la taxonomie de Linné, une collection systématique[14].
-La période du XVIe au XVIIIe siècle voit aussi une très forte augmentation de l'exploitation forestière en Europe en raison des besoins croissants en bois, notamment pour l'industrie métallurgique et pour la construction navale[15]. Les forêts, dont la superficie s'est drastiquement réduite, ne suffisent plus à assurer l'approvisionnement et, en France comme en Allemagne, une administration spécifique se met en place pour assurer leur survie et développer des connaissances de technique forestière. Corollairement, l'enseignement forestier se développe[16]. C'est dans ce contexte que, à la fin du XVIIIe siècle, les premières « bibliothèques de bois » (traduction littérale de l'allemand Holzbibliothek) destinées à présenter le bois et les caractéristiques botaniques de l'arbre dans son ensemble voient le jour en Prusse, avec pour but de mieux faire connaître la forêt et d'encourager et faciliter sa restauration[14]. D'autre part, les essences exotiques suscitent un intérêt croissant sur le Vieux continent : le Portugal, par exemple, s'intéresse particulièrement aux possibilités d'utilisation des bois tropicaux en provenance de son empire colonial[15].
-Cabinets de curiosités
-À côté du « Centone » de Rumphius dont la trace est perdue depuis le milieu du XIXe siècle[17], les collections de bois les plus anciennes encore connues au XXIe siècle sont celles de Heinrich Linck à Leipzig (1670)[18], d'Albertus Seba à Amsterdam (1710), et celle réunie par Christian Clodius à Zwickau (1729) pour le cabinet de curiosités d'Auguste II de Pologne à Dresde[14]. Dans la Deutsche Encyclopädie en 1790, elles sont mentionnées sous le nom de Holz-Cabinet[note 1]. Selon Jan Christiaan Sepp, ces bois « sont rassemblés par les amateurs de l'histoire naturelle, dans leurs cabinets de curiosités naturelles, pour l'agrément et l'utilité[19] ».
-Le « Centone » de Rumphius
-La collection de spécimens d'histoire naturelle rassemblée par Georg Everhard Rumphius lors de son séjour à Ambon, et acquise par Cosme III de Médicis en 1682, comportait un étrange meuble fabriqué par un artisan local à partir de 55 essences de bois en provenance de différentes îles d'Indonésie. Rumphius avait étudié et catalogué ces espèces qu'il mentionne dans son Herbarium Amboinense. Le « Centone » se présentait comme une armoire de 137 cm de haut, 92 cm de large et 34 cm de profondeur, à deux portes cachant deux colonnes de dix tiroirs, posée sur un support à quatre pieds. Les espèces d'arbres employées pour le fabriquer appartenaient à une trentaine de familles distinctes, dont les mieux représentées étaient les Leguminosae, les Lauraceae et les Rubiaceae, et parmi les plantes de mangrove, les Rhizophoraceae et les Sonneratiaceae. Le meuble est resté dans les collections du Palais Pitti à Florence jusqu'à la mort – sans descendance – de Jean-Gaston de Médicis en 1737, puis passant de mains en mains, il a été racheté par Giovanni Targioni Tozzetti, transmis à Ottaviano Targioni Tozzetti puis à Antonio Targioni Tozzetti. Il est mentionné pour la dernière fois dans un courrier d'Antonio daté de 1854, dans lequel celui-ci propose de le revendre au Musée d'histoire naturelle de Florence. Sa trace est perdue depuis lors[17].
-Xylothèque de Linck
-Le cabinet d'histoire naturelle de Linck est créé en 1670 par Heinrich Linck, pharmacien à Leipzig, et développé par son fils Johann Heinrich Linck l'Ancien, puis par le fils de celui-ci, Johann Heinrich Linck le Jeune. Au décès de ce dernier en 1807, en l'absence d'héritiers (tous ses enfants étant morts avant lui), sa veuve cherche à vendre la collection dans sa totalité aux enchères. Finalement le cabinet est acquis en 1840 par Othon-Victor Ier de Schönbourg-Waldenbourg et transféré en 1844 dans le musée et cabinet d'histoire naturelle de Waldenbourg (de), en Saxe, spécialement construit à cette fin.
-La xylothèque de Linck, dont le catalogue est publié par Johann Heinrich Linck le Jeune[20], se compose de 810 échantillons de bois (de 11,5 cm × 6 cm × 0,6–0,9 cm), la plupart polis, disposés  par séries de 30 dans un meuble rococo à 27 tiroirs, très vraisemblablement de facture plus récente que le meuble d'origine. Chaque échantillon est pourvu d'une étiquette manuscrite avec la dénomination de l'essence en latin[note 2] et le classement est alphabétique. Il s'agit, pour la majeure partie, d'espèces indigènes et, pour une petite partie, d'espèces exotiques, comme le palissandre, le mahonia et l'ébène. Dans le cas des buissons et des racines, plusieurs morceaux sont collés ensemble pour former une planchette du bon format. Les échantillons couverts de cristaux de DDT, à la suite des traitements insecticides appliqués sous le régime de l'Allemagne de l'Est, ont dû être décontaminés[18],[21].
-Cabinet de curiosités d'Albertus Seba
-Des échantillons de bois sont mentionnés dans l'inventaire du cabinet de curiosités d'Albertus Seba vendu en 1717 au tsar Pierre Ier le Grand[22].
-Grünes Gewölbe
-En 1729, Christian Clodius livre à Auguste II de Pologne, pour son cabinet de curiosités de la Grünes Gewölbe à Dresde, une collection de 351 échantillons de bois, contre une somme de 500 Reichsthaler[23]. Il en publie le catalogue sous le pseudonyme Lignophilus (en français « l'ami du bois »)[24].
-Maarten Houttuyn
-Dans la seconde moitié du XVIIIe siècle, Maarten Houttuyn assemble à Amsterdam un cabinet de curiosités comportant, entre autres, une collection de plus de 80 échantillons de bois. Cette collection sert notamment à compléter l'illustration du Houtkunde, behelzende de afbeeldingen van meest alle bekende, in- en uitlandsche houten qu'il publie avec Jan Christiaan Sepp en 1791[25].
-Bibliothèques de bois
-Carl Schildbach, Ottoneum (1788)
-Le musée d'histoire naturelle Ottoneum à Cassel abrite la bibliothèque de bois de 530 volumes (soit 441 espèces d'arbres et arbustes) confectionnée entre 1771 et 1799 par Carl Schildbach[26],[27], sous la dénomination Sammlung von Holzarten, so Hessenland von Natur hervorbringt (en français « Collection d'essences de bois produits par la nature du land de la Hesse »)[28].
-Chaque volume est une caissette, taillée dans le bois de l'essence présentée, et conçue comme une petite vitrine fermée par un couvercle coulissant. Celle-ci montre un arrangement en trois dimensions de matériel séché et de modèles en cire de rameaux, de feuilles, de fleurs et de fruits. L'assemblage retrace le cycle de vie de l'espèce et présente ses parasites éventuels[29]. Les plats des boîtes sont faits de bois de cœur et d'aubier, avec des sections de branches de différents diamètres et une section dans le tronc ; l'écorce, parfois couverte de lichens, est présentée sur le dos avec le nom de l'espèce ; les légendes et du matériel annexe sont fixés sur la tranche[30],[31],[32]. La collection est exposée dans un cabinet hexagonal reconstruit en 2012 pour l'exposition dOCUMENTA(13)[33] comme une « œuvre d'art - présentation scientifique » par l'artiste et médiateur scientifique américain Mark Dion, qui y a ajouté symboliquement quelques répliques modernes de volumes de bois en provenance des cinq continents[34],[35].
-Candid Huber, Ebersberg (1793)
-En 1791, Candid Huber, moine bénédictin de l'abbaye de Niederaltaich devenu vicaire d'Ebersberg, annonce la confection d'une bibliothèque de bois de 150 volumes[36]. Huber veut produire un ouvrage éducatif à la gloire du Créateur : Das Buch der Natur (en français « Le Livre de la nature ») peut ainsi être considéré comme une illustration pour Le Livre des livres, la Bible[37],[38]. De facture beaucoup plus simple que les véritables œuvres d'art réalisées par Carl Schildbach, ces volumes sont constitués de deux planches évidées de manière à ménager un espace central pour y insérer des échantillons de rameaux, feuilles, fleurs et fruits, accompagnés d'insectes utiles et nuisibles ; les deux planches sont reliées au dos, en bois non écorcé, par les étiquettes en cuir qui jouent le rôle de charnières[39]. La collection, qui s'adresse aux propriétaires forestiers, aux amateurs de botanique forestière et aux surintendants des cabinets d'histoire naturelle, est proposée en souscription ; la noblesse, le clergé ainsi que des hauts fonctionnaires se montrent intéressés[40]. Une douzaine de ces collections, confectionnées vers 1793, sont encore répertoriées après plus de deux siècles, dont la plus complète, qui compte 135 volumes, se trouve au musée d'histoire naturelle de Thurgovie à Frauenfeld, en Suisse[41] ; 132 volumes sont conservés dans la bibliothèque de l'abbaye cistercienne de Lilienfeld en Autriche[42]. Le musée de la forêt et de l'environnement (de) d'Ebersberg, en Allemagne[43], en possède également plusieurs volumes.
-Carl von Hinterlang (1798-1826)
-Entre 1798 et 1826, Carl Aloys von Hinterlang publie différentes séries d'une bibliothèque de bois, qui comportent respectivement 80 espèces[44], 180 espèces[45] et 200 espèces[46]. Chacun des volumes est en réalité une boîte de bois d'une espèce différente ; le dos, qui porte le nom de l'arbre en latin et en allemand, est orné de son écorce et de lichens ; dans la boîte, qui s'ouvre comme un livre, se trouvent des échantillons de rameaux, feuilles, fleurs, fruits et même des parasites de l'espèce[47].
-Au début du XXIe siècle, une dizaine de ces collections sont encore conservées. Un inventaire exhaustif, listant tous les exemplaires de chaque espèce, en a été compilé[48]. Les collections les plus complètes se trouvent en Autriche, au musée universel de Joanneum à Graz (285 volumes)[49] et au musée de l'observatoire de Kremsmünster (184 volumes)[50]. Plusieurs collections sont aussi répertoriées en Allemagne, et, en République tchèque, une série de 68 volumes est exposée au monastère de Strahov à Prague[47].
-Friedrich Alexander von Schlümbach et Johann Goller (1805-1810)
-Officier retraité à Nuremberg[51], von Schlümbach confectionne, entre 1805 et 1810, avec l'aide de Johann Goller, plusieurs bibliothèques de bois. Neuf séries sont encore conservées au début du XXIe siècle en Suède, en Hongrie et en Allemagne[52], ainsi qu'aux Pays-Bas, où elles avaient été offertes aux universités de Harderwijk, Leyde et Franeker par Louis Bonaparte, roi de Hollande, vers 1809, pour leur apporter son soutien[53]. La collection d'Alnarp en Suède, qui compte 217 volumes, représentant 200 espèces, est de loin la plus complète[52].
-I Libretti di Monza
-Les Libretti di Monza sont un herbier de 500 volumes, sous forme de boîtes en bois (19,5 cm × 13,5 cm × 3,5 cm)[54]. Cette collection, parfois appelée Herbarium Rainerianum[55] et datée de la première moitié du XIXe siècle, est attribuée à l'archiduc Rainier de Habsbourg, vice-roi de Lombardie-Vénétie et féru de botanique, qui voulait réaliser un herbier de la flore du parc et des jardins (it) de la villa royale de Monza[56],[57]. Sur le dos de chaque boîte sont mentionnés le nom scientifique et le nom de l'espèce en français, ainsi qu'un numéro d'ordre ; dans la boîte se trouvent feuilles, fruits, graines, rameaux, pollen, charbon de bois…, avec un papier plié où figurent la liste du matériel et des informations complémentaires[54]. Lorsque c'est possible, la boîte est confectionnée avec du bois de l'essence qu'elle contient, sinon elle est faite d'un autre bois et des rameaux (ou des tiges dans le cas des espèces herbacées) sont appliqués sur le couvercle[56]. Presque toutes les espèces ligneuses sont indigènes, les seules espèces exotiques répertoriées étant Pinus strobus L. et Platycladus orientalis Franco (syn. Thuja orientalis L.)[54].
-En 1930, la collection, à l'abandon et en très mauvais état, est récupérée et remise en valeur par Raffaele Cormio[58]. Celui-ci l'ajoute à sa propre collection de bois, rachetée en 1934 par le naturaliste et philanthrope Marco De Marchi, qui l'offre à la municipalité de Milan pour créer la Civica Siloteca Raffaele Cormio, avec une clause selon laquelle son créateur doit en devenir le premier directeur[59],[54].
-Jardin agricole de Padoue
-Le Centre d'étude de l'environnement alpin (Centro Studi per l'Ambiente Alpino) de l'université de Padoue, à San Vito di Cadore, conserve une petite collection de  56 volumes très semblables aux libretti di Monza[56], mais un peu plus petits (19 cm × 12,5 cm × 3,5 cm). Cette série, qui provient du jardin agricole de Padoue, d'où elle a été transférée au Jardin botanique de Padoue, comportait à l'origine plus de 100 volumes[60]. Deux hypothèses coexistent quant à son créateur : elle pourrait être l'œuvre de Pietro Arduino, directeur du jardin agricole depuis 1765, ou d'un artisan anoynyme ayant travaillé quelques années après la mort d'Arduino, pour son successeur Luigi Configliachi (it), sous le gouvernement des Habsbourg[61],[60].
-Collection de Sumatra
-Une bibliothèque de bois a aussi été confectionnée à Sumatra aux alentours de 1840. Les trois seuls volumes encore connus, qui portent respectivement les numéros 17, 20 et 22, pourraient provenir d'une collection plus importante de bois tropicaux récoltés lors d'une expédition menée par Pieter Willem Korthals et Salomon Müller entre 1833 et 1836[62].
-Collections spéciales
-Collection de bois régionaux de Jean-Frédéric Oberlin
-Dans le dernier tiers du XVIIIe siècle, le pasteur et pédagogue Jean-Frédéric Oberlin constitue une petite collection didactique de bois à l'intention des très jeunes enfants réunis par Sara Banzet autour des poêles à tricoter (lieux d'enseignement préfigurant les écoles maternelles). Cette collection, conservée au musée Oberlin à Waldersbach, est composée de petits blocs de bois des principales espèces indigènes de la région alsacienne, munis d'une étiquette manuscrite portant les noms français et allemands et disposés dans des casiers, et d'une vingtaine d'échantillons sous forme de planchettes réunies en collier sur une corde[63]. À côté des échantillons de bois, une série de 25 fiches indiquent les caractéristiques de chaque arbre avec une empreinte de sa feuille[64].
-Bois de Guyane du muséum d'Angers
-En 1802, Toussaint Bastard, futur directeur du jardin des plantes d'Angers, commande à Auguste Alexandre François Benoist-Cavay, chef d’administration et ordonnateur à Cayenne, 84 échantillons de bois. Les archives du muséum conservent la liste des 68 échantillons effectivement livrés, avec leur nom en créole et l'indication de leur usage (charpente, menuiserie…). Cette petite collection, en parfait état de conservation, témoigne de l'intérêt, dès le début du XIXe siècle, pour les bois tropicaux, dont certaines essences sont toujours très prisées deux siècles plus tard[65].
-Xylothèque de Jean VI de Portugal
-Au XVIIIe siècle, le manque crucial de bois pour l'industrie, notamment les constructions navales, amène les autorités portugaises à mettre en place un programme d'observation de l'utilisation des essences brésiliennes par les populations indigènes et à mener en parallèle des études sur la durabilité et la résistance des bois exotiques à l'Arsenal royal de Lisbonne (pt), où des échantillons sont régulièrement envoyés depuis la colonie[15]. En 1805, le prince régent Jean de Portugal commande au maître ébéniste José Aniceto Rapozo (1756-1824) quatre xylothèques[66] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alors que la confection d'herbiers semble remonter au début de la Renaissance, les premières mentions de collections de bois n'apparaissent qu'à la fin du XVIIe siècle dans les cabinets de curiosités. À l'origine simple collection d'objets, la xylothèque devient, sous l'influence des Lumières et de la taxonomie de Linné, une collection systématique.
+La période du XVIe au XVIIIe siècle voit aussi une très forte augmentation de l'exploitation forestière en Europe en raison des besoins croissants en bois, notamment pour l'industrie métallurgique et pour la construction navale. Les forêts, dont la superficie s'est drastiquement réduite, ne suffisent plus à assurer l'approvisionnement et, en France comme en Allemagne, une administration spécifique se met en place pour assurer leur survie et développer des connaissances de technique forestière. Corollairement, l'enseignement forestier se développe. C'est dans ce contexte que, à la fin du XVIIIe siècle, les premières « bibliothèques de bois » (traduction littérale de l'allemand Holzbibliothek) destinées à présenter le bois et les caractéristiques botaniques de l'arbre dans son ensemble voient le jour en Prusse, avec pour but de mieux faire connaître la forêt et d'encourager et faciliter sa restauration. D'autre part, les essences exotiques suscitent un intérêt croissant sur le Vieux continent : le Portugal, par exemple, s'intéresse particulièrement aux possibilités d'utilisation des bois tropicaux en provenance de son empire colonial.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Xylothèque</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Xyloth%C3%A8que</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Collections historiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Cabinets de curiosités</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À côté du « Centone » de Rumphius dont la trace est perdue depuis le milieu du XIXe siècle, les collections de bois les plus anciennes encore connues au XXIe siècle sont celles de Heinrich Linck à Leipzig (1670), d'Albertus Seba à Amsterdam (1710), et celle réunie par Christian Clodius à Zwickau (1729) pour le cabinet de curiosités d'Auguste II de Pologne à Dresde. Dans la Deutsche Encyclopädie en 1790, elles sont mentionnées sous le nom de Holz-Cabinet[note 1]. Selon Jan Christiaan Sepp, ces bois « sont rassemblés par les amateurs de l'histoire naturelle, dans leurs cabinets de curiosités naturelles, pour l'agrément et l'utilité ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Xylothèque</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Xyloth%C3%A8que</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Collections historiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Cabinets de curiosités</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Le « Centone » de Rumphius</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La collection de spécimens d'histoire naturelle rassemblée par Georg Everhard Rumphius lors de son séjour à Ambon, et acquise par Cosme III de Médicis en 1682, comportait un étrange meuble fabriqué par un artisan local à partir de 55 essences de bois en provenance de différentes îles d'Indonésie. Rumphius avait étudié et catalogué ces espèces qu'il mentionne dans son Herbarium Amboinense. Le « Centone » se présentait comme une armoire de 137 cm de haut, 92 cm de large et 34 cm de profondeur, à deux portes cachant deux colonnes de dix tiroirs, posée sur un support à quatre pieds. Les espèces d'arbres employées pour le fabriquer appartenaient à une trentaine de familles distinctes, dont les mieux représentées étaient les Leguminosae, les Lauraceae et les Rubiaceae, et parmi les plantes de mangrove, les Rhizophoraceae et les Sonneratiaceae. Le meuble est resté dans les collections du Palais Pitti à Florence jusqu'à la mort – sans descendance – de Jean-Gaston de Médicis en 1737, puis passant de mains en mains, il a été racheté par Giovanni Targioni Tozzetti, transmis à Ottaviano Targioni Tozzetti puis à Antonio Targioni Tozzetti. Il est mentionné pour la dernière fois dans un courrier d'Antonio daté de 1854, dans lequel celui-ci propose de le revendre au Musée d'histoire naturelle de Florence. Sa trace est perdue depuis lors.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Xylothèque</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Xyloth%C3%A8que</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Collections historiques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Cabinets de curiosités</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Xylothèque de Linck</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cabinet d'histoire naturelle de Linck est créé en 1670 par Heinrich Linck, pharmacien à Leipzig, et développé par son fils Johann Heinrich Linck l'Ancien, puis par le fils de celui-ci, Johann Heinrich Linck le Jeune. Au décès de ce dernier en 1807, en l'absence d'héritiers (tous ses enfants étant morts avant lui), sa veuve cherche à vendre la collection dans sa totalité aux enchères. Finalement le cabinet est acquis en 1840 par Othon-Victor Ier de Schönbourg-Waldenbourg et transféré en 1844 dans le musée et cabinet d'histoire naturelle de Waldenbourg (de), en Saxe, spécialement construit à cette fin.
+La xylothèque de Linck, dont le catalogue est publié par Johann Heinrich Linck le Jeune, se compose de 810 échantillons de bois (de 11,5 cm × 6 cm × 0,6–0,9 cm), la plupart polis, disposés  par séries de 30 dans un meuble rococo à 27 tiroirs, très vraisemblablement de facture plus récente que le meuble d'origine. Chaque échantillon est pourvu d'une étiquette manuscrite avec la dénomination de l'essence en latin[note 2] et le classement est alphabétique. Il s'agit, pour la majeure partie, d'espèces indigènes et, pour une petite partie, d'espèces exotiques, comme le palissandre, le mahonia et l'ébène. Dans le cas des buissons et des racines, plusieurs morceaux sont collés ensemble pour former une planchette du bon format. Les échantillons couverts de cristaux de DDT, à la suite des traitements insecticides appliqués sous le régime de l'Allemagne de l'Est, ont dû être décontaminés,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Xylothèque</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Xyloth%C3%A8que</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Collections historiques</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Cabinets de curiosités</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Cabinet de curiosités d'Albertus Seba</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des échantillons de bois sont mentionnés dans l'inventaire du cabinet de curiosités d'Albertus Seba vendu en 1717 au tsar Pierre Ier le Grand.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Xylothèque</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Xyloth%C3%A8que</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Collections historiques</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Cabinets de curiosités</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Grünes Gewölbe</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1729, Christian Clodius livre à Auguste II de Pologne, pour son cabinet de curiosités de la Grünes Gewölbe à Dresde, une collection de 351 échantillons de bois, contre une somme de 500 Reichsthaler. Il en publie le catalogue sous le pseudonyme Lignophilus (en français « l'ami du bois »).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Xylothèque</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Xyloth%C3%A8que</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Collections historiques</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Cabinets de curiosités</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Maarten Houttuyn</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la seconde moitié du XVIIIe siècle, Maarten Houttuyn assemble à Amsterdam un cabinet de curiosités comportant, entre autres, une collection de plus de 80 échantillons de bois. Cette collection sert notamment à compléter l'illustration du Houtkunde, behelzende de afbeeldingen van meest alle bekende, in- en uitlandsche houten qu'il publie avec Jan Christiaan Sepp en 1791.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Xylothèque</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Xyloth%C3%A8que</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Collections historiques</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Bibliothèques de bois</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Carl Schildbach, Ottoneum (1788)</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le musée d'histoire naturelle Ottoneum à Cassel abrite la bibliothèque de bois de 530 volumes (soit 441 espèces d'arbres et arbustes) confectionnée entre 1771 et 1799 par Carl Schildbach sous la dénomination Sammlung von Holzarten, so Hessenland von Natur hervorbringt (en français « Collection d'essences de bois produits par la nature du land de la Hesse »).
+Chaque volume est une caissette, taillée dans le bois de l'essence présentée, et conçue comme une petite vitrine fermée par un couvercle coulissant. Celle-ci montre un arrangement en trois dimensions de matériel séché et de modèles en cire de rameaux, de feuilles, de fleurs et de fruits. L'assemblage retrace le cycle de vie de l'espèce et présente ses parasites éventuels. Les plats des boîtes sont faits de bois de cœur et d'aubier, avec des sections de branches de différents diamètres et une section dans le tronc ; l'écorce, parfois couverte de lichens, est présentée sur le dos avec le nom de l'espèce ; les légendes et du matériel annexe sont fixés sur la tranche. La collection est exposée dans un cabinet hexagonal reconstruit en 2012 pour l'exposition dOCUMENTA(13) comme une « œuvre d'art - présentation scientifique » par l'artiste et médiateur scientifique américain Mark Dion, qui y a ajouté symboliquement quelques répliques modernes de volumes de bois en provenance des cinq continents,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Xylothèque</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Xyloth%C3%A8que</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Collections historiques</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Bibliothèques de bois</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Candid Huber, Ebersberg (1793)</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1791, Candid Huber, moine bénédictin de l'abbaye de Niederaltaich devenu vicaire d'Ebersberg, annonce la confection d'une bibliothèque de bois de 150 volumes. Huber veut produire un ouvrage éducatif à la gloire du Créateur : Das Buch der Natur (en français « Le Livre de la nature ») peut ainsi être considéré comme une illustration pour Le Livre des livres, la Bible,. De facture beaucoup plus simple que les véritables œuvres d'art réalisées par Carl Schildbach, ces volumes sont constitués de deux planches évidées de manière à ménager un espace central pour y insérer des échantillons de rameaux, feuilles, fleurs et fruits, accompagnés d'insectes utiles et nuisibles ; les deux planches sont reliées au dos, en bois non écorcé, par les étiquettes en cuir qui jouent le rôle de charnières. La collection, qui s'adresse aux propriétaires forestiers, aux amateurs de botanique forestière et aux surintendants des cabinets d'histoire naturelle, est proposée en souscription ; la noblesse, le clergé ainsi que des hauts fonctionnaires se montrent intéressés. Une douzaine de ces collections, confectionnées vers 1793, sont encore répertoriées après plus de deux siècles, dont la plus complète, qui compte 135 volumes, se trouve au musée d'histoire naturelle de Thurgovie à Frauenfeld, en Suisse ; 132 volumes sont conservés dans la bibliothèque de l'abbaye cistercienne de Lilienfeld en Autriche. Le musée de la forêt et de l'environnement (de) d'Ebersberg, en Allemagne, en possède également plusieurs volumes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Xylothèque</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Xyloth%C3%A8que</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Collections historiques</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Bibliothèques de bois</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Carl von Hinterlang (1798-1826)</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Entre 1798 et 1826, Carl Aloys von Hinterlang publie différentes séries d'une bibliothèque de bois, qui comportent respectivement 80 espèces, 180 espèces et 200 espèces. Chacun des volumes est en réalité une boîte de bois d'une espèce différente ; le dos, qui porte le nom de l'arbre en latin et en allemand, est orné de son écorce et de lichens ; dans la boîte, qui s'ouvre comme un livre, se trouvent des échantillons de rameaux, feuilles, fleurs, fruits et même des parasites de l'espèce.
+Au début du XXIe siècle, une dizaine de ces collections sont encore conservées. Un inventaire exhaustif, listant tous les exemplaires de chaque espèce, en a été compilé. Les collections les plus complètes se trouvent en Autriche, au musée universel de Joanneum à Graz (285 volumes) et au musée de l'observatoire de Kremsmünster (184 volumes). Plusieurs collections sont aussi répertoriées en Allemagne, et, en République tchèque, une série de 68 volumes est exposée au monastère de Strahov à Prague.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Xylothèque</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Xyloth%C3%A8que</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Collections historiques</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Bibliothèques de bois</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Friedrich Alexander von Schlümbach et Johann Goller (1805-1810)</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Officier retraité à Nuremberg, von Schlümbach confectionne, entre 1805 et 1810, avec l'aide de Johann Goller, plusieurs bibliothèques de bois. Neuf séries sont encore conservées au début du XXIe siècle en Suède, en Hongrie et en Allemagne, ainsi qu'aux Pays-Bas, où elles avaient été offertes aux universités de Harderwijk, Leyde et Franeker par Louis Bonaparte, roi de Hollande, vers 1809, pour leur apporter son soutien. La collection d'Alnarp en Suède, qui compte 217 volumes, représentant 200 espèces, est de loin la plus complète.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Xylothèque</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Xyloth%C3%A8que</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Collections historiques</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Bibliothèques de bois</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>I Libretti di Monza</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Libretti di Monza sont un herbier de 500 volumes, sous forme de boîtes en bois (19,5 cm × 13,5 cm × 3,5 cm). Cette collection, parfois appelée Herbarium Rainerianum et datée de la première moitié du XIXe siècle, est attribuée à l'archiduc Rainier de Habsbourg, vice-roi de Lombardie-Vénétie et féru de botanique, qui voulait réaliser un herbier de la flore du parc et des jardins (it) de la villa royale de Monza,. Sur le dos de chaque boîte sont mentionnés le nom scientifique et le nom de l'espèce en français, ainsi qu'un numéro d'ordre ; dans la boîte se trouvent feuilles, fruits, graines, rameaux, pollen, charbon de bois…, avec un papier plié où figurent la liste du matériel et des informations complémentaires. Lorsque c'est possible, la boîte est confectionnée avec du bois de l'essence qu'elle contient, sinon elle est faite d'un autre bois et des rameaux (ou des tiges dans le cas des espèces herbacées) sont appliqués sur le couvercle. Presque toutes les espèces ligneuses sont indigènes, les seules espèces exotiques répertoriées étant Pinus strobus L. et Platycladus orientalis Franco (syn. Thuja orientalis L.).
+En 1930, la collection, à l'abandon et en très mauvais état, est récupérée et remise en valeur par Raffaele Cormio. Celui-ci l'ajoute à sa propre collection de bois, rachetée en 1934 par le naturaliste et philanthrope Marco De Marchi, qui l'offre à la municipalité de Milan pour créer la Civica Siloteca Raffaele Cormio, avec une clause selon laquelle son créateur doit en devenir le premier directeur,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Xylothèque</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Xyloth%C3%A8que</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Collections historiques</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Bibliothèques de bois</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Jardin agricole de Padoue</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Centre d'étude de l'environnement alpin (Centro Studi per l'Ambiente Alpino) de l'université de Padoue, à San Vito di Cadore, conserve une petite collection de  56 volumes très semblables aux libretti di Monza, mais un peu plus petits (19 cm × 12,5 cm × 3,5 cm). Cette série, qui provient du jardin agricole de Padoue, d'où elle a été transférée au Jardin botanique de Padoue, comportait à l'origine plus de 100 volumes. Deux hypothèses coexistent quant à son créateur : elle pourrait être l'œuvre de Pietro Arduino, directeur du jardin agricole depuis 1765, ou d'un artisan anoynyme ayant travaillé quelques années après la mort d'Arduino, pour son successeur Luigi Configliachi (it), sous le gouvernement des Habsbourg,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Xylothèque</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Xyloth%C3%A8que</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Collections historiques</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Bibliothèques de bois</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Collection de Sumatra</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une bibliothèque de bois a aussi été confectionnée à Sumatra aux alentours de 1840. Les trois seuls volumes encore connus, qui portent respectivement les numéros 17, 20 et 22, pourraient provenir d'une collection plus importante de bois tropicaux récoltés lors d'une expédition menée par Pieter Willem Korthals et Salomon Müller entre 1833 et 1836.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Xylothèque</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Xyloth%C3%A8que</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Collections historiques</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Collections spéciales</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Collection de bois régionaux de Jean-Frédéric Oberlin</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le dernier tiers du XVIIIe siècle, le pasteur et pédagogue Jean-Frédéric Oberlin constitue une petite collection didactique de bois à l'intention des très jeunes enfants réunis par Sara Banzet autour des poêles à tricoter (lieux d'enseignement préfigurant les écoles maternelles). Cette collection, conservée au musée Oberlin à Waldersbach, est composée de petits blocs de bois des principales espèces indigènes de la région alsacienne, munis d'une étiquette manuscrite portant les noms français et allemands et disposés dans des casiers, et d'une vingtaine d'échantillons sous forme de planchettes réunies en collier sur une corde. À côté des échantillons de bois, une série de 25 fiches indiquent les caractéristiques de chaque arbre avec une empreinte de sa feuille.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Xylothèque</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Xyloth%C3%A8que</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Collections historiques</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Collections spéciales</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Bois de Guyane du muséum d'Angers</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1802, Toussaint Bastard, futur directeur du jardin des plantes d'Angers, commande à Auguste Alexandre François Benoist-Cavay, chef d’administration et ordonnateur à Cayenne, 84 échantillons de bois. Les archives du muséum conservent la liste des 68 échantillons effectivement livrés, avec leur nom en créole et l'indication de leur usage (charpente, menuiserie…). Cette petite collection, en parfait état de conservation, témoigne de l'intérêt, dès le début du XIXe siècle, pour les bois tropicaux, dont certaines essences sont toujours très prisées deux siècles plus tard.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Xylothèque</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Xyloth%C3%A8que</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Collections historiques</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Collections spéciales</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Xylothèque de Jean VI de Portugal</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au XVIIIe siècle, le manque crucial de bois pour l'industrie, notamment les constructions navales, amène les autorités portugaises à mettre en place un programme d'observation de l'utilisation des essences brésiliennes par les populations indigènes et à mener en parallèle des études sur la durabilité et la résistance des bois exotiques à l'Arsenal royal de Lisbonne (pt), où des échantillons sont régulièrement envoyés depuis la colonie. En 1805, le prince régent Jean de Portugal commande au maître ébéniste José Aniceto Rapozo (1756-1824) quatre xylothèques :
 pour sa collection personnelle conservée dans sa chambre à coucher,
 pour l'université de Coimbra – à laquelle le surplus d'échantillons non utilisés est envoyé pour des études ultérieures,
 pour le palais royal d'Ajuda,
 la dernière étant destinée à être offerte.
-L'artisan fabrique quatre meubles signés, au décor d'influence anglaise, à deux portes cachant 35 tiroirs d'échantillons. Chaque meuble contient plus d'un millier d'échantillons qui proviennent principalement des collections de bois brésiliens envoyés à l'Arsenal royal en 1784 par le vice-roi du Brésil, Luís de Vasconcelos e Sousa, afin de tester les qualités et les propriétés des essences exotiques[67].
-L'exemplaire personnel du prince, qui compte 1 095 échantillons[68], est conservé jusqu'en 1940 au Palácio das Necessidades, il est ensuite déposé au Museu Nacional de Arte Antiga de Lisbonne[69] où il fait partie, depuis 2018, de l'exposition permanente de meubles[70]. Le cabinet de l'université de Coimbra, vidé de ses 1 225 échantillons de bois à une époque indéterminée postérieure à 1872[68], est utilisé au XXIe siècle pour entreposer des coupes histologiques[71]. Aucune trace de celui du palais royal d'Ajuda n'a été retrouvée à ce jour (2021).
-La quatrième collection est offerte par le prince à l'Aula de História Natural (devenu Aula Maynense en 1849), un établissement d'enseignement supérieur en sciences naturelles fondé en 1792 par le père José Mayne (en), qui avait constitué un cabinet de curiosités naturelles au Couvent Notre-Dame de Jésus[66],[72]. En 1808, Étienne Geoffroy Saint-Hilaire, envoyé en mission au Portugal par Napoléon pour en rapporter des spécimens d'histoire naturelle en provenance du Brésil, admire la xylothèque du monastère, mais renonce à l'emporter car cette collection de bois qui ne porte que les noms commerciaux des essences est alors inexploitable scientifiquement en raison de l'absence de matériel d'herbier complémentaire[73]. Lors de la sécularisation du monastère en 1834, les collections de Mayne, y compris la xylothèque, sont confiées à l'Académie des sciences de Lisbonne, à laquelle il en avait fait don et qui en assure toujours la gestion dans le Museu Maynense da Academia das Ciências de Lisboa (pt)[74].
-La xylothèque de l'Académie a fait l'objet d'une étude approfondie visant à en donner une description détaillée, à définir le contexte historique de sa création et à déterminer sa valeur scientifique[75],[76]. Le meuble à deux portes a une hauteur de 71 cm et une largeur de 59 cm, sa profondeur est de 50 cm[77]. Le poinçon « IAR » permet d'identifier l'artisan Iosephus Aniceto Rapozo, comme l'imposait la loi portugaise[78]. La collection se compose de 1 225 échantillons de bois (de 100 × 56 × 5 mm)[75] provenant en majeure partie du Brésil, seuls 12 échantillons proviennent du Portugal continental, de Madère, du Cap-Vert, de São Tomé, de l'Angola et de l'Inde, dont ils illustrent les bois les plus précieux. Chaque échantillon est pourvu d'une étiquette indiquant le nom commercial de l'essence et son numéro dans le catalogue compilé par Rapozo, déposé dans le tiroir inférieur. Dans le catalogue sont données la capitainerie d'origine et les utilisations de chaque essence[79]. Comme il n'est pas toujours possible de prélever sur les échantillons une section histologique permettant l'examen au microscope, l'identification des espèces, désignées par leur seul nom vernaculaire ou commercial – parfois inconnu au XXIe siècle –, est difficile[80]. Les quelque 40 % des échantillons qui ont reçu une identification provisoire en 2014 témoignent que certaines essences, en nette raréfaction, voire en danger d'extinction, au XXIe siècle, étaient très prisées deux siècles auparavant[81].
-Xylothèques japonaises
-Époque d'Edo (1826)
-La collection de l'époque d'Edo, conservée à l'Herbier national des Pays-Bas à Leyde, se compose de 45 fines planchettes de bois d'espèces indigènes de l'île d'Hokkaido (d'environ 7 cm × 14 cm × 0,65 cm), sur une face desquelles est peint le feuillage de l'espèce, avec son nom vernaculaire en japonais, et parfois en latin. Offerte en cadeau à Philipp Franz von Siebold, lors de son séjour à Edo en 1826, par le géographe et explorateur japonais Mogami Tokunai, elle est cédée par Siebold à Carl Ludwig Blume, premier directeur du Rijksherbarium de Leyde, à son retour du Japon en 1830[82],[83].
+L'artisan fabrique quatre meubles signés, au décor d'influence anglaise, à deux portes cachant 35 tiroirs d'échantillons. Chaque meuble contient plus d'un millier d'échantillons qui proviennent principalement des collections de bois brésiliens envoyés à l'Arsenal royal en 1784 par le vice-roi du Brésil, Luís de Vasconcelos e Sousa, afin de tester les qualités et les propriétés des essences exotiques.
+L'exemplaire personnel du prince, qui compte 1 095 échantillons, est conservé jusqu'en 1940 au Palácio das Necessidades, il est ensuite déposé au Museu Nacional de Arte Antiga de Lisbonne où il fait partie, depuis 2018, de l'exposition permanente de meubles. Le cabinet de l'université de Coimbra, vidé de ses 1 225 échantillons de bois à une époque indéterminée postérieure à 1872, est utilisé au XXIe siècle pour entreposer des coupes histologiques. Aucune trace de celui du palais royal d'Ajuda n'a été retrouvée à ce jour (2021).
+La quatrième collection est offerte par le prince à l'Aula de História Natural (devenu Aula Maynense en 1849), un établissement d'enseignement supérieur en sciences naturelles fondé en 1792 par le père José Mayne (en), qui avait constitué un cabinet de curiosités naturelles au Couvent Notre-Dame de Jésus,. En 1808, Étienne Geoffroy Saint-Hilaire, envoyé en mission au Portugal par Napoléon pour en rapporter des spécimens d'histoire naturelle en provenance du Brésil, admire la xylothèque du monastère, mais renonce à l'emporter car cette collection de bois qui ne porte que les noms commerciaux des essences est alors inexploitable scientifiquement en raison de l'absence de matériel d'herbier complémentaire. Lors de la sécularisation du monastère en 1834, les collections de Mayne, y compris la xylothèque, sont confiées à l'Académie des sciences de Lisbonne, à laquelle il en avait fait don et qui en assure toujours la gestion dans le Museu Maynense da Academia das Ciências de Lisboa (pt).
+La xylothèque de l'Académie a fait l'objet d'une étude approfondie visant à en donner une description détaillée, à définir le contexte historique de sa création et à déterminer sa valeur scientifique,. Le meuble à deux portes a une hauteur de 71 cm et une largeur de 59 cm, sa profondeur est de 50 cm. Le poinçon « IAR » permet d'identifier l'artisan Iosephus Aniceto Rapozo, comme l'imposait la loi portugaise. La collection se compose de 1 225 échantillons de bois (de 100 × 56 × 5 mm) provenant en majeure partie du Brésil, seuls 12 échantillons proviennent du Portugal continental, de Madère, du Cap-Vert, de São Tomé, de l'Angola et de l'Inde, dont ils illustrent les bois les plus précieux. Chaque échantillon est pourvu d'une étiquette indiquant le nom commercial de l'essence et son numéro dans le catalogue compilé par Rapozo, déposé dans le tiroir inférieur. Dans le catalogue sont données la capitainerie d'origine et les utilisations de chaque essence. Comme il n'est pas toujours possible de prélever sur les échantillons une section histologique permettant l'examen au microscope, l'identification des espèces, désignées par leur seul nom vernaculaire ou commercial – parfois inconnu au XXIe siècle –, est difficile. Les quelque 40 % des échantillons qui ont reçu une identification provisoire en 2014 témoignent que certaines essences, en nette raréfaction, voire en danger d'extinction, au XXIe siècle, étaient très prisées deux siècles auparavant.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Xylothèque</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Xyloth%C3%A8que</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Collections historiques</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Collections spéciales</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Xylothèques japonaises</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Époque d'Edo (1826)
+La collection de l'époque d'Edo, conservée à l'Herbier national des Pays-Bas à Leyde, se compose de 45 fines planchettes de bois d'espèces indigènes de l'île d'Hokkaido (d'environ 7 cm × 14 cm × 0,65 cm), sur une face desquelles est peint le feuillage de l'espèce, avec son nom vernaculaire en japonais, et parfois en latin. Offerte en cadeau à Philipp Franz von Siebold, lors de son séjour à Edo en 1826, par le géographe et explorateur japonais Mogami Tokunai, elle est cédée par Siebold à Carl Ludwig Blume, premier directeur du Rijksherbarium de Leyde, à son retour du Japon en 1830,.
 Ère Meiji (1878)
-La xylothèque japonaise du début de l'ère Meiji (1878) se compose de 220 panneaux de bois (34 cm × 23 cm × 3 cm) appartenant à 150 espèces différentes, la plupart indigènes au Japon, sur lesquels sont peints les détails botaniques de l'espèce ; l'encadrement est constitué d'écorce, avec aux quatre angles des sections transversales de branches[84],[85]. Cinq sets de ces panneaux, tous réalisés au même moment[note 3], par une équipe d'artistes sous la direction de Chikusai Kato, illustrateur aux jardins botaniques de Koishikawa, pour l'université impériale de Tokyo, sont conservés : aux jardins botaniques de Koishikawa à Tokyo au Japon, au jardin botanique et musée botanique de Berlin-Dahlem en Allemagne (152 panneaux)[86],[87], aux jardins botaniques royaux de Kew (25 panneaux) et dans la collection privée de George Loudon en Grande-Bretagne, et à l'université Harvard aux États-Unis[88],[89].
+La xylothèque japonaise du début de l'ère Meiji (1878) se compose de 220 panneaux de bois (34 cm × 23 cm × 3 cm) appartenant à 150 espèces différentes, la plupart indigènes au Japon, sur lesquels sont peints les détails botaniques de l'espèce ; l'encadrement est constitué d'écorce, avec aux quatre angles des sections transversales de branches,. Cinq sets de ces panneaux, tous réalisés au même moment[note 3], par une équipe d'artistes sous la direction de Chikusai Kato, illustrateur aux jardins botaniques de Koishikawa, pour l'université impériale de Tokyo, sont conservés : aux jardins botaniques de Koishikawa à Tokyo au Japon, au jardin botanique et musée botanique de Berlin-Dahlem en Allemagne (152 panneaux) aux jardins botaniques royaux de Kew (25 panneaux) et dans la collection privée de George Loudon en Grande-Bretagne, et à l'université Harvard aux États-Unis,.
 </t>
         </is>
       </c>
